--- a/screenshot_area.xlsx
+++ b/screenshot_area.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leizh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leizh\github\ddz_card_recorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2059493-30D5-4AF8-8264-42BE2C483C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EFA318-2F63-49C2-A1E4-10BBBD554262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
   <si>
     <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,30 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左边玩家出牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边玩家地主标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边玩家出牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边玩家地主标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边玩家剩余卡牌数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边玩家剩余卡牌数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快速开始按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,30 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>右边玩家不出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_player_buchu_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_player_buchu_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边玩家不出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叫地主或抢地主按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不叫或不抢按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,75 +425,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我不出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my_buchu_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>右边玩家动画位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边玩家动画位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的动画位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my_played_animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left_played_animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_played_animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边玩家动画位置2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边玩家动画位置2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_played_animation 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_played_animation 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的剩余卡牌数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my_player_remaining_cards_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_player_remaining_cards_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_player_remaining_cards_count</t>
+    <t>ming_pai_4s_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不叫地主按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明牌按钮（4s倒计时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫地主按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢地主按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加倍按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级加倍按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明牌按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ming_pai_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super_redouble_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_redouble_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redouble_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scramble_landlord_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不抢地主按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_scramble_landlord_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_remaining_cards_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_remaining_cards_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_played_cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_played_animation_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_played_animation_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_played_animation_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_played_animation_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的出牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_played_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_played_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_played_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的动作文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家地主标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家地主标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家剩余牌数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家剩余牌数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家动作文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家动作文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家出牌动画1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧玩家出牌动画2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家出牌动画1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧玩家出牌动画2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的出牌动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,23 +945,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D1" s="5"/>
     </row>
@@ -931,28 +986,28 @@
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -961,982 +1016,992 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.90749999999999997</v>
-      </c>
-      <c r="D6">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E6">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F6">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H6">
-        <f>C3*C6</f>
-        <v>1742.3999999999999</v>
-      </c>
-      <c r="I6">
-        <f>D3*D6</f>
-        <v>999</v>
-      </c>
-      <c r="J6">
-        <f>C3*E6</f>
-        <v>170.88</v>
-      </c>
-      <c r="K6">
-        <f>D3*F6</f>
-        <v>82.08</v>
-      </c>
-    </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.79200000000000004</v>
+        <f>H7/C3</f>
+        <v>0.78333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.875</v>
+        <f>I7/D3</f>
+        <v>0.86018518518518516</v>
       </c>
       <c r="E7">
-        <v>0.192</v>
+        <f>J7/C3</f>
+        <v>0.13802083333333334</v>
       </c>
       <c r="F7">
-        <v>0.11</v>
+        <f>K7/D3</f>
+        <v>0.11574074074074074</v>
       </c>
       <c r="H7">
-        <f>C3*C7</f>
-        <v>1520.64</v>
+        <v>1504</v>
       </c>
       <c r="I7">
-        <f>D3*D7</f>
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="J7">
-        <f>C3*E7</f>
-        <v>368.64</v>
+        <v>265</v>
       </c>
       <c r="K7">
-        <f>D3*F7</f>
-        <v>118.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.50600000000000001</v>
+        <f>H8/C3</f>
+        <v>0.90468749999999998</v>
       </c>
       <c r="D8">
-        <v>0.59299999999999997</v>
+        <f>I8/D3</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E8">
-        <v>0.185</v>
+        <f>J8/C3</f>
+        <v>8.6979166666666663E-2</v>
       </c>
       <c r="F8">
-        <v>0.12</v>
+        <f>K8/D3</f>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="H8">
-        <f>C3*C8</f>
-        <v>971.52</v>
+        <v>1737</v>
       </c>
       <c r="I8">
-        <f>D3*D8</f>
-        <v>640.43999999999994</v>
+        <v>999</v>
       </c>
       <c r="J8">
-        <f>C3*E8</f>
-        <v>355.2</v>
+        <v>167</v>
       </c>
       <c r="K8">
-        <f>D3*F8</f>
-        <v>129.6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>0.73</v>
+        <f>H9/C3</f>
+        <v>0.49843749999999998</v>
       </c>
       <c r="D9">
-        <v>0.755</v>
+        <f>I9/D3</f>
+        <v>0.59259259259259256</v>
       </c>
       <c r="E9">
-        <v>0.157</v>
+        <f>J9/C3</f>
+        <v>0.18385416666666668</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <f>K9/D3</f>
+        <v>0.11388888888888889</v>
       </c>
       <c r="H9">
-        <f>C3*C9</f>
-        <v>1401.6</v>
+        <v>957</v>
       </c>
       <c r="I9">
-        <f>D3*D9</f>
-        <v>815.4</v>
+        <v>640</v>
       </c>
       <c r="J9">
-        <f>C3*E9</f>
-        <v>301.44</v>
+        <v>353</v>
       </c>
       <c r="K9">
-        <f>D3*F9</f>
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <f>H11/C3</f>
+        <v>0.19322916666666667</v>
+      </c>
+      <c r="D11">
+        <f>I11/D3</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="E11">
+        <f>J11/C3</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F11">
+        <f>K11/D3</f>
+        <v>0.13703703703703704</v>
       </c>
       <c r="H11">
-        <f>C3*C11</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="I11">
-        <f>D3*D11</f>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="J11">
-        <f>C3*E11</f>
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="K11">
-        <f>D3*F11</f>
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12">
-        <f>C3*C12</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>D3*D12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>C3*E12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>D3*F12</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13">
-        <f>C3*C13</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>D3*D13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>C3*E13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>D3*F13</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14">
-        <f>C3*C14</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>D3*D14</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>C3*E14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>D3*F14</f>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <f>C3*C15</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>D3*D15</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>C3*E15</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>D3*F15</f>
-        <v>0</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D17">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E17">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H17">
-        <f>C3*C17</f>
-        <v>796.8</v>
-      </c>
-      <c r="I17">
-        <f>D3*D17</f>
-        <v>39.96</v>
-      </c>
-      <c r="J17">
-        <f>C3*E17</f>
-        <v>122.88</v>
-      </c>
-      <c r="K17">
-        <f>D3*F17</f>
-        <v>160.91999999999999</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H18">
-        <f>C3*C18</f>
-        <v>796.8</v>
-      </c>
-      <c r="I18">
-        <f>D3*D18</f>
-        <v>39.96</v>
-      </c>
-      <c r="J18">
-        <f>C3*E18</f>
-        <v>322.56</v>
-      </c>
-      <c r="K18">
-        <f>D3*F18</f>
-        <v>160.91999999999999</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="D20">
-        <v>0.27</v>
-      </c>
-      <c r="E20">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.13</v>
-      </c>
-      <c r="H20">
-        <f>C3*C20</f>
-        <v>1624.32</v>
-      </c>
-      <c r="I20">
-        <f>D3*D20</f>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="J20">
-        <f>C3*E20</f>
-        <v>122.88</v>
-      </c>
-      <c r="K20">
-        <f>D3*F20</f>
-        <v>140.4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.27</v>
-      </c>
-      <c r="E21">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.13</v>
-      </c>
-      <c r="H21">
-        <f>C3*C21</f>
-        <v>144</v>
-      </c>
-      <c r="I21">
-        <f>D3*D21</f>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="J21">
-        <f>C3*E21</f>
-        <v>122.88</v>
-      </c>
-      <c r="K21">
-        <f>D3*F21</f>
-        <v>140.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>1E-3</v>
-      </c>
-      <c r="D22">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E22">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.13</v>
-      </c>
-      <c r="H22">
-        <f>C3*C22</f>
-        <v>1.92</v>
-      </c>
-      <c r="I22">
-        <f>D3*D22</f>
-        <v>826.2</v>
-      </c>
-      <c r="J22">
-        <f>C3*E22</f>
-        <v>122.88</v>
-      </c>
-      <c r="K22">
-        <f>D3*F22</f>
-        <v>140.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>0.13</v>
+        <f>H24/C3</f>
+        <v>0.7348958333333333</v>
       </c>
       <c r="D24">
-        <v>0.69499999999999995</v>
+        <f>I24/D3</f>
+        <v>0.75555555555555554</v>
       </c>
       <c r="E24">
-        <v>0.73</v>
+        <f>J24/C3</f>
+        <v>0.15260416666666668</v>
       </c>
       <c r="F24">
-        <v>0.24</v>
+        <f>K24/D3</f>
+        <v>0.10277777777777777</v>
       </c>
       <c r="H24">
-        <f>C3*C24</f>
-        <v>249.60000000000002</v>
+        <v>1411</v>
       </c>
       <c r="I24">
-        <f>D3*D24</f>
-        <v>750.59999999999991</v>
+        <v>816</v>
       </c>
       <c r="J24">
-        <f>C3*E24</f>
-        <v>1401.6</v>
+        <v>293</v>
       </c>
       <c r="K24">
-        <f>D3*F24</f>
-        <v>259.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.77200000000000002</v>
+        <f>H26/C3</f>
+        <v>0.41093750000000001</v>
       </c>
       <c r="D26">
-        <v>0.48199999999999998</v>
+        <f>I26/D3</f>
+        <v>3.2407407407407406E-2</v>
       </c>
       <c r="E26">
-        <v>4.2000000000000003E-2</v>
+        <f>J26/C3</f>
+        <v>6.9791666666666669E-2</v>
       </c>
       <c r="F26">
-        <v>9.2999999999999999E-2</v>
+        <f>K26/D3</f>
+        <v>0.14722222222222223</v>
       </c>
       <c r="H26">
-        <f>C3*C26</f>
-        <v>1482.24</v>
+        <v>789</v>
       </c>
       <c r="I26">
-        <f>D3*D26</f>
-        <v>520.55999999999995</v>
+        <v>35</v>
       </c>
       <c r="J26">
-        <f>C3*E26</f>
-        <v>80.64</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <f>D3*F26</f>
-        <v>100.44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <f>H27/C3</f>
+        <v>0.40572916666666664</v>
+      </c>
+      <c r="D27">
+        <f>I27/D3</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E27">
+        <f>J27/C3</f>
+        <v>0.1796875</v>
+      </c>
+      <c r="F27">
+        <f>K27/D3</f>
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="H27">
+        <v>779</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>345</v>
+      </c>
+      <c r="K27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <f>H29/C3</f>
+        <v>0.84739583333333335</v>
+      </c>
+      <c r="D29">
+        <f>I29/D3</f>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="E29">
+        <f>J29/C3</f>
+        <v>5.9895833333333336E-2</v>
+      </c>
+      <c r="F29">
+        <f>K29/D3</f>
+        <v>0.11574074074074074</v>
+      </c>
+      <c r="H29">
+        <v>1627</v>
+      </c>
+      <c r="I29">
+        <v>279</v>
+      </c>
+      <c r="J29">
+        <v>115</v>
+      </c>
+      <c r="K29">
         <v>125</v>
-      </c>
-      <c r="C27">
-        <v>0.183</v>
-      </c>
-      <c r="D27">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="E27">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F27">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="H27">
-        <f>C3*C27</f>
-        <v>351.36</v>
-      </c>
-      <c r="I27">
-        <f>D3*D27</f>
-        <v>501.12</v>
-      </c>
-      <c r="J27">
-        <f>C3*E27</f>
-        <v>80.64</v>
-      </c>
-      <c r="K27">
-        <f>D3*F27</f>
-        <v>100.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F28">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="H28">
-        <f>C3*C28</f>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f>D3*D28</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>C3*E28</f>
-        <v>80.64</v>
-      </c>
-      <c r="K28">
-        <f>D3*F28</f>
-        <v>100.44</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <f>H30/C3</f>
+        <v>7.5520833333333329E-2</v>
       </c>
       <c r="D30">
-        <v>0.33</v>
+        <f>I30/D3</f>
+        <v>0.26296296296296295</v>
       </c>
       <c r="E30">
-        <v>0.27200000000000002</v>
+        <f>J30/C3</f>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="F30">
-        <v>0.24</v>
+        <f>K30/D3</f>
+        <v>0.11018518518518519</v>
       </c>
       <c r="H30">
-        <f>C3*C30</f>
-        <v>960</v>
+        <v>145</v>
       </c>
       <c r="I30">
-        <f>D3*D30</f>
-        <v>356.40000000000003</v>
+        <v>284</v>
       </c>
       <c r="J30">
-        <f>C3*E30</f>
-        <v>522.24</v>
+        <v>112</v>
       </c>
       <c r="K30">
-        <f>D3*F30</f>
-        <v>259.2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>0.22</v>
+        <f>H31/C3</f>
+        <v>1.5625000000000001E-3</v>
       </c>
       <c r="D31">
-        <v>0.33</v>
+        <f>I31/D3</f>
+        <v>0.7768518518518519</v>
       </c>
       <c r="E31">
-        <v>0.27200000000000002</v>
+        <f>J31/C3</f>
+        <v>5.46875E-2</v>
       </c>
       <c r="F31">
-        <v>0.24</v>
+        <f>K31/D3</f>
+        <v>0.11388888888888889</v>
       </c>
       <c r="H31">
-        <f>C3*C31</f>
-        <v>422.4</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <f>D3*D31</f>
-        <v>356.40000000000003</v>
+        <v>839</v>
       </c>
       <c r="J31">
-        <f>C3*E31</f>
-        <v>522.24</v>
+        <v>105</v>
       </c>
       <c r="K31">
-        <f>D3*F31</f>
-        <v>259.2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>0.64600000000000002</v>
+        <f>H33/C3</f>
+        <v>0.14166666666666666</v>
       </c>
       <c r="D33">
-        <v>0.43</v>
+        <f>I33/D3</f>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E33">
-        <v>0.105</v>
+        <f>J33/C3</f>
+        <v>0.70937499999999998</v>
       </c>
       <c r="F33">
-        <v>0.112</v>
+        <f>K33/D3</f>
+        <v>0.23518518518518519</v>
       </c>
       <c r="H33">
-        <f>C3*C33</f>
-        <v>1240.32</v>
+        <v>272</v>
       </c>
       <c r="I33">
-        <f>D3*D33</f>
-        <v>464.4</v>
+        <v>762</v>
       </c>
       <c r="J33">
-        <f>C3*E33</f>
-        <v>201.6</v>
+        <v>1362</v>
       </c>
       <c r="K33">
-        <f>D3*F33</f>
-        <v>120.96000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>0.245</v>
-      </c>
-      <c r="D34">
-        <v>0.43</v>
-      </c>
-      <c r="E34">
-        <v>0.105</v>
-      </c>
-      <c r="F34">
-        <v>0.112</v>
-      </c>
-      <c r="H34">
-        <f>C3*C34</f>
-        <v>470.4</v>
-      </c>
-      <c r="I34">
-        <f>D3*D34</f>
-        <v>464.4</v>
-      </c>
-      <c r="J34">
-        <f>C3*E34</f>
-        <v>201.6</v>
-      </c>
-      <c r="K34">
-        <f>D3*F34</f>
-        <v>120.96000000000001</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>0.443</v>
+        <f>H35/C3</f>
+        <v>0.76718750000000002</v>
       </c>
       <c r="D35">
-        <v>0.57599999999999996</v>
+        <f>I35/D3</f>
+        <v>0.46296296296296297</v>
       </c>
       <c r="E35">
-        <v>0.105</v>
+        <f>J35/C3</f>
+        <v>4.6875E-2</v>
       </c>
       <c r="F35">
-        <v>0.112</v>
+        <f>K35/D3</f>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="H35">
-        <f>C3*C35</f>
-        <v>850.56000000000006</v>
+        <v>1473</v>
       </c>
       <c r="I35">
-        <f>D3*D35</f>
-        <v>622.07999999999993</v>
+        <v>500</v>
       </c>
       <c r="J35">
-        <f>C3*E35</f>
-        <v>201.6</v>
+        <v>90</v>
       </c>
       <c r="K35">
-        <f>D3*F35</f>
-        <v>120.96000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37">
-        <v>0.86</v>
-      </c>
-      <c r="D37">
-        <v>0.19</v>
-      </c>
-      <c r="E37">
-        <v>0.09</v>
-      </c>
-      <c r="F37">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="H37">
-        <f>C3*C37</f>
-        <v>1651.2</v>
-      </c>
-      <c r="I37">
-        <f>D3*D37</f>
-        <v>205.2</v>
-      </c>
-      <c r="J37">
-        <f>C3*E37</f>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="K37">
-        <f>D3*F37</f>
-        <v>92.34</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36">
+        <f>H36/C3</f>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="D36">
+        <f>I36/D11</f>
+        <v>850.75471698113211</v>
+      </c>
+      <c r="E36">
+        <f>J36/C3</f>
+        <v>4.4791666666666667E-2</v>
+      </c>
+      <c r="F36">
+        <f>K36/D3</f>
+        <v>8.7037037037037038E-2</v>
+      </c>
+      <c r="H36">
+        <v>348</v>
+      </c>
+      <c r="I36">
+        <v>501</v>
+      </c>
+      <c r="J36">
+        <v>86</v>
+      </c>
+      <c r="K36">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>0.06</v>
+        <f>H38/C3</f>
+        <v>0.51249999999999996</v>
       </c>
       <c r="D38">
-        <v>0.19</v>
+        <f>I38/D3</f>
+        <v>0.31944444444444442</v>
       </c>
       <c r="E38">
-        <v>0.09</v>
+        <f>J38/C3</f>
+        <v>0.26874999999999999</v>
       </c>
       <c r="F38">
-        <v>8.5500000000000007E-2</v>
+        <f>K38/D3</f>
+        <v>0.22870370370370371</v>
       </c>
       <c r="H38">
-        <f>C3*C38</f>
-        <v>115.19999999999999</v>
+        <v>984</v>
       </c>
       <c r="I38">
-        <f>D3*D38</f>
-        <v>205.2</v>
+        <v>345</v>
       </c>
       <c r="J38">
-        <f>C3*E38</f>
-        <v>172.79999999999998</v>
+        <v>516</v>
       </c>
       <c r="K38">
-        <f>D3*F38</f>
-        <v>92.34</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <f>H39/C3</f>
+        <v>0.22135416666666666</v>
+      </c>
+      <c r="D39">
+        <f>I39/D3</f>
+        <v>0.3212962962962963</v>
+      </c>
+      <c r="E39">
+        <f>J39/C3</f>
+        <v>0.26614583333333336</v>
+      </c>
+      <c r="F39">
+        <f>K39/D3</f>
+        <v>0.22962962962962963</v>
+      </c>
+      <c r="H39">
+        <v>425</v>
+      </c>
+      <c r="I39">
+        <v>347</v>
+      </c>
+      <c r="J39">
+        <v>511</v>
+      </c>
+      <c r="K39">
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <f>H40/C3</f>
+        <v>0.32916666666666666</v>
       </c>
       <c r="D40">
-        <v>0.19500000000000001</v>
+        <f>I40/D3</f>
+        <v>0.44722222222222224</v>
       </c>
       <c r="E40">
-        <v>0.27200000000000002</v>
+        <f>J40/C3</f>
+        <v>0.34895833333333331</v>
       </c>
       <c r="F40">
-        <v>0.13</v>
+        <f>K40/D3</f>
+        <v>0.23425925925925925</v>
       </c>
       <c r="H40">
-        <f>C3*C40</f>
-        <v>960</v>
+        <v>632</v>
       </c>
       <c r="I40">
-        <f>D3*D40</f>
-        <v>210.6</v>
+        <v>483</v>
       </c>
       <c r="J40">
-        <f>C3*E40</f>
-        <v>522.24</v>
+        <v>670</v>
       </c>
       <c r="K40">
-        <f>D3*F40</f>
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41">
-        <v>0.22</v>
-      </c>
-      <c r="D41">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E41">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="F41">
-        <v>0.13</v>
-      </c>
-      <c r="H41">
-        <f>C3*C41</f>
-        <v>422.4</v>
-      </c>
-      <c r="I41">
-        <f>D3*D41</f>
-        <v>210.6</v>
-      </c>
-      <c r="J41">
-        <f>C3*E41</f>
-        <v>522.24</v>
-      </c>
-      <c r="K41">
-        <f>D3*F41</f>
-        <v>140.4</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <f>H42/C3</f>
+        <v>0.61562499999999998</v>
+      </c>
+      <c r="D42">
+        <f>I42/D3</f>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E42">
+        <f>J42/C3</f>
+        <v>0.14687500000000001</v>
+      </c>
+      <c r="F42">
+        <f>K42/D3</f>
+        <v>0.13240740740740742</v>
+      </c>
+      <c r="H42">
+        <v>1182</v>
+      </c>
+      <c r="I42">
+        <v>453</v>
+      </c>
+      <c r="J42">
+        <v>282</v>
+      </c>
+      <c r="K42">
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C43">
-        <v>0.3</v>
+        <f>H43/C3</f>
+        <v>0.24635416666666668</v>
       </c>
       <c r="D43">
-        <v>0.39</v>
+        <f>I43/D3</f>
+        <v>0.41944444444444445</v>
       </c>
       <c r="E43">
-        <v>0.25</v>
+        <f>J43/C3</f>
+        <v>0.14583333333333334</v>
       </c>
       <c r="F43">
-        <v>0.186</v>
+        <f>K43/D3</f>
+        <v>0.13240740740740742</v>
       </c>
       <c r="H43">
-        <f>C3*C43</f>
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="I43">
-        <f>D3*D43</f>
-        <v>421.2</v>
+        <v>453</v>
       </c>
       <c r="J43">
-        <f>C3*E43</f>
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="K43">
-        <f>D3*F43</f>
-        <v>200.88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45">
-        <v>0.73</v>
-      </c>
-      <c r="D45">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="E45">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F45">
-        <v>0.08</v>
-      </c>
-      <c r="H45">
-        <f>C3*C45</f>
-        <v>1401.6</v>
-      </c>
-      <c r="I45">
-        <f>D3*D45</f>
-        <v>285.12</v>
-      </c>
-      <c r="J45">
-        <f>C3*E45</f>
-        <v>320.64000000000004</v>
-      </c>
-      <c r="K45">
-        <f>D3*F45</f>
-        <v>86.4</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <f>H44/C3</f>
+        <v>0.421875</v>
+      </c>
+      <c r="D44">
+        <f>I44/D3</f>
+        <v>0.56018518518518523</v>
+      </c>
+      <c r="E44">
+        <f>J44/C3</f>
+        <v>0.15364583333333334</v>
+      </c>
+      <c r="F44">
+        <f>K44/D3</f>
+        <v>0.12592592592592591</v>
+      </c>
+      <c r="H44">
+        <v>810</v>
+      </c>
+      <c r="I44">
+        <v>605</v>
+      </c>
+      <c r="J44">
+        <v>295</v>
+      </c>
+      <c r="K44">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46">
+        <f>H46/C3</f>
+        <v>0.84947916666666667</v>
+      </c>
+      <c r="D46">
+        <f>I46/D3</f>
+        <v>0.13148148148148148</v>
+      </c>
+      <c r="E46">
+        <f>J46/C3</f>
+        <v>6.822916666666666E-2</v>
+      </c>
+      <c r="F46">
+        <f>K46/D3</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="H46">
+        <v>1631</v>
+      </c>
+      <c r="I46">
+        <v>142</v>
+      </c>
+      <c r="J46">
+        <v>131</v>
+      </c>
+      <c r="K46">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47">
+        <f>H47/C3</f>
+        <v>0.51197916666666665</v>
+      </c>
+      <c r="D47">
+        <f>I47/D3</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E47">
+        <f>J47/C3</f>
+        <v>0.23229166666666667</v>
+      </c>
+      <c r="F47">
+        <f>K47/D3</f>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="H47">
+        <v>983</v>
+      </c>
+      <c r="I47">
+        <v>330</v>
+      </c>
+      <c r="J47">
+        <v>446</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <f>H48/C3</f>
+        <v>5.0520833333333334E-2</v>
+      </c>
+      <c r="D48">
+        <f>I48/D3</f>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="E48">
+        <f>J48/C3</f>
+        <v>9.6354166666666671E-2</v>
+      </c>
+      <c r="F48">
+        <f>K48/D3</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H48">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>198</v>
+      </c>
+      <c r="J48">
+        <v>185</v>
+      </c>
+      <c r="K48">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
+        <f>H49/C3</f>
+        <v>0.25312499999999999</v>
+      </c>
+      <c r="D49">
+        <f>I49/D3</f>
+        <v>0.29814814814814816</v>
+      </c>
+      <c r="E49">
+        <f>J49/C3</f>
+        <v>0.234375</v>
+      </c>
+      <c r="F49">
+        <f>K49/D3</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="H49">
+        <v>486</v>
+      </c>
+      <c r="I49">
+        <v>322</v>
+      </c>
+      <c r="J49">
+        <v>450</v>
+      </c>
+      <c r="K49">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <f>H51/C3</f>
+        <v>0.35</v>
+      </c>
+      <c r="D51">
+        <f>I51/D3</f>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E51">
+        <f>J51/C3</f>
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F51">
+        <f>K51/D3</f>
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="H51">
+        <v>672</v>
+      </c>
+      <c r="I51">
+        <v>453</v>
+      </c>
+      <c r="J51">
+        <v>564</v>
+      </c>
+      <c r="K51">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <f>H53/C3</f>
+        <v>0.70416666666666672</v>
+      </c>
+      <c r="D53">
+        <f>I53/D3</f>
+        <v>0.25648148148148148</v>
+      </c>
+      <c r="E53">
+        <f>J53/C3</f>
+        <v>0.20156250000000001</v>
+      </c>
+      <c r="F53">
+        <f>K53/D3</f>
+        <v>8.981481481481482E-2</v>
+      </c>
+      <c r="H53">
+        <v>1352</v>
+      </c>
+      <c r="I53">
+        <v>277</v>
+      </c>
+      <c r="J53">
+        <v>387</v>
+      </c>
+      <c r="K53">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D50E27-F810-4510-A146-B15AF26BA373}">
   <dimension ref="C3:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -1962,10 +2027,10 @@
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -1979,10 +2044,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>36</v>
@@ -1993,10 +2058,10 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>36</v>
@@ -2010,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -2024,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -2038,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -2052,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -2066,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -2080,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -2094,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>40</v>
@@ -2108,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>40</v>
@@ -2119,10 +2184,10 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>52</v>
@@ -2133,10 +2198,10 @@
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>40</v>
@@ -2147,10 +2212,10 @@
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>46</v>
@@ -2161,10 +2226,10 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>46</v>
@@ -2175,10 +2240,10 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2189,13 +2254,13 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>23</v>
@@ -2206,10 +2271,10 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>23</v>
@@ -2223,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>36</v>
@@ -2237,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>36</v>
@@ -2251,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>36</v>
@@ -2265,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>36</v>
@@ -2279,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -2293,7 +2358,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -2307,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>36</v>
@@ -2321,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -2332,10 +2397,10 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>48</v>
@@ -2346,10 +2411,10 @@
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>39</v>
@@ -2360,10 +2425,10 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>42</v>
@@ -2374,10 +2439,10 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>40</v>
@@ -2388,13 +2453,13 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -2405,10 +2470,10 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -2422,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F39">
         <v>32</v>
@@ -2436,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F40">
         <v>32</v>
@@ -2450,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <v>32</v>
@@ -2464,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F42">
         <v>32</v>
@@ -2478,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F43">
         <v>32</v>
@@ -2492,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F44">
         <v>32</v>
@@ -2506,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F45">
         <v>32</v>
@@ -2520,7 +2585,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F46">
         <v>32</v>
@@ -2531,10 +2596,10 @@
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47">
         <v>38</v>
@@ -2545,10 +2610,10 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F48">
         <v>34</v>
@@ -2559,10 +2624,10 @@
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <v>34</v>
@@ -2573,10 +2638,10 @@
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F50">
         <v>36</v>
@@ -2587,10 +2652,10 @@
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F51">
         <v>38</v>

--- a/screenshot_area.xlsx
+++ b/screenshot_area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leizh\github\ddz_card_recorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EFA318-2F63-49C2-A1E4-10BBBD554262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1CD40-2185-49B1-9D74-D020E620B35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加倍按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超级加倍按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redouble_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scramble_landlord_btn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,6 +590,22 @@
   </si>
   <si>
     <t>游戏结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redouble_btn_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redouble_btn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍按钮（位置1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍按钮（位置2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1181,36 +1189,92 @@
         <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>139</v>
+      </c>
+      <c r="C16">
+        <f>H16/C3</f>
+        <v>0.24479166666666666</v>
+      </c>
+      <c r="D16">
+        <f>I16/D3</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E16">
+        <f>J16/C3</f>
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="F16">
+        <f>K16/D3</f>
+        <v>0.13796296296296295</v>
+      </c>
+      <c r="H16">
+        <v>470</v>
+      </c>
+      <c r="I16">
+        <v>612</v>
+      </c>
+      <c r="J16">
+        <v>268</v>
+      </c>
+      <c r="K16">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <f>H17/C3</f>
+        <v>0.33072916666666669</v>
+      </c>
+      <c r="D17">
+        <f>I17/D3</f>
+        <v>0.57314814814814818</v>
+      </c>
+      <c r="E17">
+        <f>J17/C3</f>
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F17">
+        <f>K17/D3</f>
+        <v>0.12592592592592591</v>
+      </c>
+      <c r="H17">
+        <v>635</v>
+      </c>
+      <c r="I17">
+        <v>619</v>
+      </c>
+      <c r="J17">
+        <v>272</v>
+      </c>
+      <c r="K17">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>109</v>
@@ -1218,514 +1282,514 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
+      <c r="C19">
+        <f>H19/C3</f>
+        <v>0.37552083333333336</v>
+      </c>
+      <c r="D19">
+        <f>I19/D3</f>
+        <v>0.57962962962962961</v>
+      </c>
+      <c r="E19">
+        <f>J19/C3</f>
+        <v>0.17395833333333333</v>
+      </c>
+      <c r="F19">
+        <f>K19/D3</f>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="H19">
+        <v>721</v>
+      </c>
+      <c r="I19">
+        <v>626</v>
+      </c>
+      <c r="J19">
+        <v>334</v>
+      </c>
+      <c r="K19">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <f>H24/C3</f>
+      <c r="C25">
+        <f>H25/C3</f>
         <v>0.7348958333333333</v>
       </c>
-      <c r="D24">
-        <f>I24/D3</f>
+      <c r="D25">
+        <f>I25/D3</f>
         <v>0.75555555555555554</v>
       </c>
-      <c r="E24">
-        <f>J24/C3</f>
+      <c r="E25">
+        <f>J25/C3</f>
         <v>0.15260416666666668</v>
       </c>
-      <c r="F24">
-        <f>K24/D3</f>
+      <c r="F25">
+        <f>K25/D3</f>
         <v>0.10277777777777777</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>1411</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>816</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>293</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <f>H26/C3</f>
-        <v>0.41093750000000001</v>
-      </c>
-      <c r="D26">
-        <f>I26/D3</f>
-        <v>3.2407407407407406E-2</v>
-      </c>
-      <c r="E26">
-        <f>J26/C3</f>
-        <v>6.9791666666666669E-2</v>
-      </c>
-      <c r="F26">
-        <f>K26/D3</f>
-        <v>0.14722222222222223</v>
-      </c>
-      <c r="H26">
-        <v>789</v>
-      </c>
-      <c r="I26">
-        <v>35</v>
-      </c>
-      <c r="J26">
-        <v>134</v>
-      </c>
-      <c r="K26">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <f>H27/C3</f>
-        <v>0.40572916666666664</v>
+        <v>0.41093750000000001</v>
       </c>
       <c r="D27">
         <f>I27/D3</f>
-        <v>2.7777777777777776E-2</v>
+        <v>3.2407407407407406E-2</v>
       </c>
       <c r="E27">
         <f>J27/C3</f>
-        <v>0.1796875</v>
+        <v>6.9791666666666669E-2</v>
       </c>
       <c r="F27">
         <f>K27/D3</f>
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="H27">
+        <v>789</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>134</v>
+      </c>
+      <c r="K27">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <f>H28/C3</f>
+        <v>0.40572916666666664</v>
+      </c>
+      <c r="D28">
+        <f>I28/D3</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E28">
+        <f>J28/C3</f>
+        <v>0.1796875</v>
+      </c>
+      <c r="F28">
+        <f>K28/D3</f>
         <v>0.16111111111111112</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>779</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>345</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <f>H29/C3</f>
-        <v>0.84739583333333335</v>
-      </c>
-      <c r="D29">
-        <f>I29/D3</f>
-        <v>0.25833333333333336</v>
-      </c>
-      <c r="E29">
-        <f>J29/C3</f>
-        <v>5.9895833333333336E-2</v>
-      </c>
-      <c r="F29">
-        <f>K29/D3</f>
-        <v>0.11574074074074074</v>
-      </c>
-      <c r="H29">
-        <v>1627</v>
-      </c>
-      <c r="I29">
-        <v>279</v>
-      </c>
-      <c r="J29">
-        <v>115</v>
-      </c>
-      <c r="K29">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <f>H30/C3</f>
-        <v>7.5520833333333329E-2</v>
+        <v>0.84739583333333335</v>
       </c>
       <c r="D30">
         <f>I30/D3</f>
-        <v>0.26296296296296295</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="E30">
         <f>J30/C3</f>
-        <v>5.8333333333333334E-2</v>
+        <v>5.9895833333333336E-2</v>
       </c>
       <c r="F30">
         <f>K30/D3</f>
-        <v>0.11018518518518519</v>
+        <v>0.11574074074074074</v>
       </c>
       <c r="H30">
-        <v>145</v>
+        <v>1627</v>
       </c>
       <c r="I30">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J30">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K30">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <f>H31/C3</f>
-        <v>1.5625000000000001E-3</v>
+        <v>7.5520833333333329E-2</v>
       </c>
       <c r="D31">
         <f>I31/D3</f>
-        <v>0.7768518518518519</v>
+        <v>0.26296296296296295</v>
       </c>
       <c r="E31">
         <f>J31/C3</f>
-        <v>5.46875E-2</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="F31">
         <f>K31/D3</f>
+        <v>0.11018518518518519</v>
+      </c>
+      <c r="H31">
+        <v>145</v>
+      </c>
+      <c r="I31">
+        <v>284</v>
+      </c>
+      <c r="J31">
+        <v>112</v>
+      </c>
+      <c r="K31">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <f>H32/C3</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="D32">
+        <f>I32/D3</f>
+        <v>0.7768518518518519</v>
+      </c>
+      <c r="E32">
+        <f>J32/C3</f>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="F32">
+        <f>K32/D3</f>
         <v>0.11388888888888889</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>839</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>105</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C33">
-        <f>H33/C3</f>
+      <c r="C34">
+        <f>H34/C3</f>
         <v>0.14166666666666666</v>
       </c>
-      <c r="D33">
-        <f>I33/D3</f>
+      <c r="D34">
+        <f>I34/D3</f>
         <v>0.7055555555555556</v>
       </c>
-      <c r="E33">
-        <f>J33/C3</f>
+      <c r="E34">
+        <f>J34/C3</f>
         <v>0.70937499999999998</v>
       </c>
-      <c r="F33">
-        <f>K33/D3</f>
+      <c r="F34">
+        <f>K34/D3</f>
         <v>0.23518518518518519</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>272</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>762</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>1362</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35">
-        <f>H35/C3</f>
-        <v>0.76718750000000002</v>
-      </c>
-      <c r="D35">
-        <f>I35/D3</f>
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="E35">
-        <f>J35/C3</f>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="F35">
-        <f>K35/D3</f>
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="H35">
-        <v>1473</v>
-      </c>
-      <c r="I35">
-        <v>500</v>
-      </c>
-      <c r="J35">
-        <v>90</v>
-      </c>
-      <c r="K35">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36">
         <f>H36/C3</f>
-        <v>0.18124999999999999</v>
+        <v>0.76718750000000002</v>
       </c>
       <c r="D36">
-        <f>I36/D11</f>
-        <v>850.75471698113211</v>
+        <f>I36/D3</f>
+        <v>0.46296296296296297</v>
       </c>
       <c r="E36">
         <f>J36/C3</f>
-        <v>4.4791666666666667E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="F36">
         <f>K36/D3</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="H36">
+        <v>1473</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <v>90</v>
+      </c>
+      <c r="K36">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37">
+        <f>H37/C3</f>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="D37">
+        <f>I37/D11</f>
+        <v>850.75471698113211</v>
+      </c>
+      <c r="E37">
+        <f>J37/C3</f>
+        <v>4.4791666666666667E-2</v>
+      </c>
+      <c r="F37">
+        <f>K37/D3</f>
         <v>8.7037037037037038E-2</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>348</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>501</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>86</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <f>H38/C3</f>
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="D38">
-        <f>I38/D3</f>
-        <v>0.31944444444444442</v>
-      </c>
-      <c r="E38">
-        <f>J38/C3</f>
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="F38">
-        <f>K38/D3</f>
-        <v>0.22870370370370371</v>
-      </c>
-      <c r="H38">
-        <v>984</v>
-      </c>
-      <c r="I38">
-        <v>345</v>
-      </c>
-      <c r="J38">
-        <v>516</v>
-      </c>
-      <c r="K38">
-        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <f>H39/C3</f>
-        <v>0.22135416666666666</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="D39">
         <f>I39/D3</f>
-        <v>0.3212962962962963</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="E39">
         <f>J39/C3</f>
-        <v>0.26614583333333336</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="F39">
         <f>K39/D3</f>
-        <v>0.22962962962962963</v>
+        <v>0.22870370370370371</v>
       </c>
       <c r="H39">
-        <v>425</v>
+        <v>984</v>
       </c>
       <c r="I39">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J39">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K39">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <f>H40/C3</f>
-        <v>0.32916666666666666</v>
+        <v>0.22135416666666666</v>
       </c>
       <c r="D40">
         <f>I40/D3</f>
-        <v>0.44722222222222224</v>
+        <v>0.3212962962962963</v>
       </c>
       <c r="E40">
         <f>J40/C3</f>
-        <v>0.34895833333333331</v>
+        <v>0.26614583333333336</v>
       </c>
       <c r="F40">
         <f>K40/D3</f>
+        <v>0.22962962962962963</v>
+      </c>
+      <c r="H40">
+        <v>425</v>
+      </c>
+      <c r="I40">
+        <v>347</v>
+      </c>
+      <c r="J40">
+        <v>511</v>
+      </c>
+      <c r="K40">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41">
+        <f>H41/C3</f>
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="D41">
+        <f>I41/D3</f>
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="E41">
+        <f>J41/C3</f>
+        <v>0.34895833333333331</v>
+      </c>
+      <c r="F41">
+        <f>K41/D3</f>
         <v>0.23425925925925925</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>632</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>483</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>670</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42">
-        <f>H42/C3</f>
-        <v>0.61562499999999998</v>
-      </c>
-      <c r="D42">
-        <f>I42/D3</f>
-        <v>0.41944444444444445</v>
-      </c>
-      <c r="E42">
-        <f>J42/C3</f>
-        <v>0.14687500000000001</v>
-      </c>
-      <c r="F42">
-        <f>K42/D3</f>
-        <v>0.13240740740740742</v>
-      </c>
-      <c r="H42">
-        <v>1182</v>
-      </c>
-      <c r="I42">
-        <v>453</v>
-      </c>
-      <c r="J42">
-        <v>282</v>
-      </c>
-      <c r="K42">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43">
         <f>H43/C3</f>
-        <v>0.24635416666666668</v>
+        <v>0.61562499999999998</v>
       </c>
       <c r="D43">
         <f>I43/D3</f>
@@ -1733,20 +1797,20 @@
       </c>
       <c r="E43">
         <f>J43/C3</f>
-        <v>0.14583333333333334</v>
+        <v>0.14687500000000001</v>
       </c>
       <c r="F43">
         <f>K43/D3</f>
         <v>0.13240740740740742</v>
       </c>
       <c r="H43">
-        <v>473</v>
+        <v>1182</v>
       </c>
       <c r="I43">
         <v>453</v>
       </c>
       <c r="J43">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K43">
         <v>143</v>
@@ -1754,253 +1818,289 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44">
         <f>H44/C3</f>
-        <v>0.421875</v>
+        <v>0.24635416666666668</v>
       </c>
       <c r="D44">
         <f>I44/D3</f>
-        <v>0.56018518518518523</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="E44">
         <f>J44/C3</f>
-        <v>0.15364583333333334</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="F44">
         <f>K44/D3</f>
+        <v>0.13240740740740742</v>
+      </c>
+      <c r="H44">
+        <v>473</v>
+      </c>
+      <c r="I44">
+        <v>453</v>
+      </c>
+      <c r="J44">
+        <v>280</v>
+      </c>
+      <c r="K44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45">
+        <f>H45/C3</f>
+        <v>0.421875</v>
+      </c>
+      <c r="D45">
+        <f>I45/D3</f>
+        <v>0.56018518518518523</v>
+      </c>
+      <c r="E45">
+        <f>J45/C3</f>
+        <v>0.15364583333333334</v>
+      </c>
+      <c r="F45">
+        <f>K45/D3</f>
         <v>0.12592592592592591</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>810</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>605</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>295</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46">
-        <f>H46/C3</f>
-        <v>0.84947916666666667</v>
-      </c>
-      <c r="D46">
-        <f>I46/D3</f>
-        <v>0.13148148148148148</v>
-      </c>
-      <c r="E46">
-        <f>J46/C3</f>
-        <v>6.822916666666666E-2</v>
-      </c>
-      <c r="F46">
-        <f>K46/D3</f>
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="H46">
-        <v>1631</v>
-      </c>
-      <c r="I46">
-        <v>142</v>
-      </c>
-      <c r="J46">
-        <v>131</v>
-      </c>
-      <c r="K46">
-        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <f>H47/C3</f>
-        <v>0.51197916666666665</v>
+        <v>0.84947916666666667</v>
       </c>
       <c r="D47">
         <f>I47/D3</f>
-        <v>0.30555555555555558</v>
+        <v>0.13148148148148148</v>
       </c>
       <c r="E47">
         <f>J47/C3</f>
-        <v>0.23229166666666667</v>
+        <v>6.822916666666666E-2</v>
       </c>
       <c r="F47">
         <f>K47/D3</f>
-        <v>9.2592592592592587E-2</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="H47">
-        <v>983</v>
+        <v>1631</v>
       </c>
       <c r="I47">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="J47">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="K47">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C48">
         <f>H48/C3</f>
-        <v>5.0520833333333334E-2</v>
+        <v>0.51197916666666665</v>
       </c>
       <c r="D48">
         <f>I48/D3</f>
-        <v>0.18333333333333332</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="E48">
         <f>J48/C3</f>
-        <v>9.6354166666666671E-2</v>
+        <v>0.23229166666666667</v>
       </c>
       <c r="F48">
         <f>K48/D3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="H48">
-        <v>97</v>
+        <v>983</v>
       </c>
       <c r="I48">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="J48">
-        <v>185</v>
+        <v>446</v>
       </c>
       <c r="K48">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49">
         <f>H49/C3</f>
-        <v>0.25312499999999999</v>
+        <v>5.0520833333333334E-2</v>
       </c>
       <c r="D49">
         <f>I49/D3</f>
-        <v>0.29814814814814816</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="E49">
         <f>J49/C3</f>
-        <v>0.234375</v>
+        <v>9.6354166666666671E-2</v>
       </c>
       <c r="F49">
         <f>K49/D3</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H49">
+        <v>97</v>
+      </c>
+      <c r="I49">
+        <v>198</v>
+      </c>
+      <c r="J49">
+        <v>185</v>
+      </c>
+      <c r="K49">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50">
+        <f>H50/C3</f>
+        <v>0.25312499999999999</v>
+      </c>
+      <c r="D50">
+        <f>I50/D3</f>
+        <v>0.29814814814814816</v>
+      </c>
+      <c r="E50">
+        <f>J50/C3</f>
+        <v>0.234375</v>
+      </c>
+      <c r="F50">
+        <f>K50/D3</f>
         <v>9.166666666666666E-2</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <v>486</v>
       </c>
-      <c r="I49">
+      <c r="I50">
         <v>322</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>450</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="C51">
-        <f>H51/C3</f>
+      <c r="C52">
+        <f>H52/C3</f>
         <v>0.35</v>
       </c>
-      <c r="D51">
-        <f>I51/D3</f>
+      <c r="D52">
+        <f>I52/D3</f>
         <v>0.41944444444444445</v>
       </c>
-      <c r="E51">
-        <f>J51/C3</f>
+      <c r="E52">
+        <f>J52/C3</f>
         <v>0.29375000000000001</v>
       </c>
-      <c r="F51">
-        <f>K51/D3</f>
+      <c r="F52">
+        <f>K52/D3</f>
         <v>0.10555555555555556</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>672</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>453</v>
       </c>
-      <c r="J51">
+      <c r="J52">
         <v>564</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
         <v>97</v>
       </c>
-      <c r="C53">
-        <f>H53/C3</f>
+      <c r="C54">
+        <f>H54/C3</f>
         <v>0.70416666666666672</v>
       </c>
-      <c r="D53">
-        <f>I53/D3</f>
+      <c r="D54">
+        <f>I54/D3</f>
         <v>0.25648148148148148</v>
       </c>
-      <c r="E53">
-        <f>J53/C3</f>
+      <c r="E54">
+        <f>J54/C3</f>
         <v>0.20156250000000001</v>
       </c>
-      <c r="F53">
-        <f>K53/D3</f>
+      <c r="F54">
+        <f>K54/D3</f>
         <v>8.981481481481482E-2</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>1352</v>
       </c>
-      <c r="I53">
+      <c r="I54">
         <v>277</v>
       </c>
-      <c r="J53">
+      <c r="J54">
         <v>387</v>
       </c>
-      <c r="K53">
+      <c r="K54">
         <v>97</v>
       </c>
     </row>

--- a/screenshot_area.xlsx
+++ b/screenshot_area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leizh\github\ddz_card_recorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1CD40-2185-49B1-9D74-D020E620B35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE300A70-5D90-4F7C-BD29-0D361F65B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
   <si>
     <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,19 +593,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>redouble_btn_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redouble_btn_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加倍按钮（位置1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加倍按钮（位置2）</t>
+    <t>redouble_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,16 +945,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,47 +1133,67 @@
       </c>
       <c r="C11">
         <f>H11/C3</f>
-        <v>0.19322916666666667</v>
+        <v>0.4296875</v>
       </c>
       <c r="D11">
         <f>I11/D3</f>
-        <v>0.58888888888888891</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E11">
         <f>J11/C3</f>
-        <v>0.60416666666666663</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="F11">
         <f>K11/D3</f>
-        <v>0.13703703703703704</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="H11">
-        <v>371</v>
+        <v>825</v>
       </c>
       <c r="I11">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="J11">
-        <v>1160</v>
+        <v>260</v>
       </c>
       <c r="K11">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <f>H13/C3</f>
+        <v>0.21406249999999999</v>
+      </c>
+      <c r="D13">
+        <f>I13/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E13">
+        <f>J13/C3</f>
+        <v>0.25572916666666667</v>
+      </c>
+      <c r="F13">
+        <f>K13/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H13">
+        <v>411</v>
+      </c>
+      <c r="I13">
+        <v>621</v>
+      </c>
+      <c r="J13">
+        <v>491</v>
+      </c>
+      <c r="K13">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1191,93 +1203,141 @@
       <c r="B14" t="s">
         <v>110</v>
       </c>
+      <c r="C14">
+        <f>H14/C3</f>
+        <v>0.21406249999999999</v>
+      </c>
+      <c r="D14">
+        <f>I14/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E14">
+        <f>J14/C3</f>
+        <v>0.25572916666666667</v>
+      </c>
+      <c r="F14">
+        <f>K14/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H14">
+        <v>411</v>
+      </c>
+      <c r="I14">
+        <v>621</v>
+      </c>
+      <c r="J14">
+        <v>491</v>
+      </c>
+      <c r="K14">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f>H15/C3</f>
+        <v>0.52812499999999996</v>
+      </c>
+      <c r="D15">
+        <f>I15/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E15">
+        <f>J15/C3</f>
+        <v>0.25104166666666666</v>
+      </c>
+      <c r="F15">
+        <f>K15/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H15">
+        <v>1014</v>
+      </c>
+      <c r="I15">
+        <v>621</v>
+      </c>
+      <c r="J15">
+        <v>482</v>
+      </c>
+      <c r="K15">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C16">
         <f>H16/C3</f>
-        <v>0.24479166666666666</v>
+        <v>0.52812499999999996</v>
       </c>
       <c r="D16">
         <f>I16/D3</f>
-        <v>0.56666666666666665</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E16">
         <f>J16/C3</f>
-        <v>0.13958333333333334</v>
+        <v>0.25104166666666666</v>
       </c>
       <c r="F16">
         <f>K16/D3</f>
-        <v>0.13796296296296295</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="H16">
-        <v>470</v>
+        <v>1014</v>
       </c>
       <c r="I16">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="J16">
-        <v>268</v>
+        <v>482</v>
       </c>
       <c r="K16">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17">
-        <f>H17/C3</f>
-        <v>0.33072916666666669</v>
-      </c>
-      <c r="D17">
-        <f>I17/D3</f>
-        <v>0.57314814814814818</v>
-      </c>
-      <c r="E17">
-        <f>J17/C3</f>
-        <v>0.14166666666666666</v>
-      </c>
-      <c r="F17">
-        <f>K17/D3</f>
-        <v>0.12592592592592591</v>
-      </c>
-      <c r="H17">
-        <v>635</v>
-      </c>
-      <c r="I17">
-        <v>619</v>
-      </c>
-      <c r="J17">
-        <v>272</v>
-      </c>
-      <c r="K17">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>139</v>
+      </c>
+      <c r="C18">
+        <f>H18/C3</f>
+        <v>0.22187499999999999</v>
+      </c>
+      <c r="D18">
+        <f>I18/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E18">
+        <f>J18/C3</f>
+        <v>0.30104166666666665</v>
+      </c>
+      <c r="F18">
+        <f>K18/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H18">
+        <v>426</v>
+      </c>
+      <c r="I18">
+        <v>621</v>
+      </c>
+      <c r="J18">
+        <v>578</v>
+      </c>
+      <c r="K18">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,818 +1349,966 @@
       </c>
       <c r="C19">
         <f>H19/C3</f>
-        <v>0.37552083333333336</v>
+        <v>0.22187499999999999</v>
       </c>
       <c r="D19">
         <f>I19/D3</f>
-        <v>0.57962962962962961</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E19">
         <f>J19/C3</f>
-        <v>0.17395833333333333</v>
+        <v>0.30104166666666665</v>
       </c>
       <c r="F19">
         <f>K19/D3</f>
-        <v>0.11666666666666667</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="H19">
-        <v>721</v>
+        <v>426</v>
       </c>
       <c r="I19">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="J19">
-        <v>334</v>
+        <v>578</v>
       </c>
       <c r="K19">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <f>H20/C3</f>
+        <v>0.53125</v>
+      </c>
+      <c r="D20">
+        <f>I20/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E20">
+        <f>J20/C3</f>
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="F20">
+        <f>K20/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H20">
+        <v>1020</v>
+      </c>
+      <c r="I20">
+        <v>621</v>
+      </c>
+      <c r="J20">
+        <v>464</v>
+      </c>
+      <c r="K20">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <f>H22/C3</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D22">
+        <f>I22/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E22">
+        <f>J22/C3</f>
+        <v>0.30104166666666665</v>
+      </c>
+      <c r="F22">
+        <f>K22/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H22">
+        <v>896</v>
+      </c>
+      <c r="I22">
+        <v>621</v>
+      </c>
+      <c r="J22">
+        <v>578</v>
+      </c>
+      <c r="K22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <f>H24/C3</f>
+        <v>0.21406249999999999</v>
+      </c>
+      <c r="D24">
+        <f>I24/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E24">
+        <f>J24/C3</f>
+        <v>0.25572916666666667</v>
+      </c>
+      <c r="F24">
+        <f>K24/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H24">
+        <v>411</v>
+      </c>
+      <c r="I24">
+        <v>621</v>
+      </c>
+      <c r="J24">
+        <v>491</v>
+      </c>
+      <c r="K24">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <f>H25/C3</f>
-        <v>0.7348958333333333</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="D25">
         <f>I25/D3</f>
-        <v>0.75555555555555554</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E25">
         <f>J25/C3</f>
-        <v>0.15260416666666668</v>
+        <v>0.30104166666666665</v>
       </c>
       <c r="F25">
         <f>K25/D3</f>
-        <v>0.10277777777777777</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="H25">
-        <v>1411</v>
+        <v>896</v>
       </c>
       <c r="I25">
-        <v>816</v>
+        <v>621</v>
       </c>
       <c r="J25">
-        <v>293</v>
+        <v>578</v>
       </c>
       <c r="K25">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <f>H27/C3</f>
-        <v>0.41093750000000001</v>
-      </c>
-      <c r="D27">
-        <f>I27/D3</f>
-        <v>3.2407407407407406E-2</v>
-      </c>
-      <c r="E27">
-        <f>J27/C3</f>
-        <v>6.9791666666666669E-2</v>
-      </c>
-      <c r="F27">
-        <f>K27/D3</f>
-        <v>0.14722222222222223</v>
-      </c>
-      <c r="H27">
-        <v>789</v>
-      </c>
-      <c r="I27">
-        <v>35</v>
-      </c>
-      <c r="J27">
-        <v>134</v>
-      </c>
-      <c r="K27">
-        <v>159</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <f>H26/C3</f>
+        <v>0.46770833333333334</v>
+      </c>
+      <c r="D26">
+        <f>I26/D3</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E26">
+        <f>J26/C3</f>
+        <v>0.12968750000000001</v>
+      </c>
+      <c r="F26">
+        <f>K26/D3</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="H26">
+        <v>898</v>
+      </c>
+      <c r="I26">
+        <v>621</v>
+      </c>
+      <c r="J26">
+        <v>249</v>
+      </c>
+      <c r="K26">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <f>H28/C3</f>
-        <v>0.40572916666666664</v>
+        <v>0.7348958333333333</v>
       </c>
       <c r="D28">
         <f>I28/D3</f>
-        <v>2.7777777777777776E-2</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="E28">
         <f>J28/C3</f>
-        <v>0.1796875</v>
+        <v>0.15260416666666668</v>
       </c>
       <c r="F28">
         <f>K28/D3</f>
-        <v>0.16111111111111112</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="H28">
-        <v>779</v>
+        <v>1411</v>
       </c>
       <c r="I28">
-        <v>30</v>
+        <v>816</v>
       </c>
       <c r="J28">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="K28">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <f>H30/C3</f>
-        <v>0.84739583333333335</v>
+        <v>0.41093750000000001</v>
       </c>
       <c r="D30">
         <f>I30/D3</f>
-        <v>0.25833333333333336</v>
+        <v>3.2407407407407406E-2</v>
       </c>
       <c r="E30">
         <f>J30/C3</f>
-        <v>5.9895833333333336E-2</v>
+        <v>6.9791666666666669E-2</v>
       </c>
       <c r="F30">
         <f>K30/D3</f>
-        <v>0.11574074074074074</v>
+        <v>0.14722222222222223</v>
       </c>
       <c r="H30">
-        <v>1627</v>
+        <v>789</v>
       </c>
       <c r="I30">
-        <v>279</v>
+        <v>35</v>
       </c>
       <c r="J30">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K30">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <f>H31/C3</f>
-        <v>7.5520833333333329E-2</v>
+        <v>0.40572916666666664</v>
       </c>
       <c r="D31">
         <f>I31/D3</f>
-        <v>0.26296296296296295</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E31">
         <f>J31/C3</f>
-        <v>5.8333333333333334E-2</v>
+        <v>0.1796875</v>
       </c>
       <c r="F31">
         <f>K31/D3</f>
-        <v>0.11018518518518519</v>
+        <v>0.16111111111111112</v>
       </c>
       <c r="H31">
-        <v>145</v>
+        <v>779</v>
       </c>
       <c r="I31">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="J31">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="K31">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32">
-        <f>H32/C3</f>
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="D32">
-        <f>I32/D3</f>
-        <v>0.7768518518518519</v>
-      </c>
-      <c r="E32">
-        <f>J32/C3</f>
-        <v>5.46875E-2</v>
-      </c>
-      <c r="F32">
-        <f>K32/D3</f>
-        <v>0.11388888888888889</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>839</v>
-      </c>
-      <c r="J32">
-        <v>105</v>
-      </c>
-      <c r="K32">
-        <v>123</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <f>H33/C3</f>
+        <v>0.84739583333333335</v>
+      </c>
+      <c r="D33">
+        <f>I33/D3</f>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="E33">
+        <f>J33/C3</f>
+        <v>5.9895833333333336E-2</v>
+      </c>
+      <c r="F33">
+        <f>K33/D3</f>
+        <v>0.11574074074074074</v>
+      </c>
+      <c r="H33">
+        <v>1627</v>
+      </c>
+      <c r="I33">
+        <v>279</v>
+      </c>
+      <c r="J33">
+        <v>115</v>
+      </c>
+      <c r="K33">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <f>H34/C3</f>
-        <v>0.14166666666666666</v>
+        <v>7.5520833333333329E-2</v>
       </c>
       <c r="D34">
         <f>I34/D3</f>
-        <v>0.7055555555555556</v>
+        <v>0.26296296296296295</v>
       </c>
       <c r="E34">
         <f>J34/C3</f>
-        <v>0.70937499999999998</v>
+        <v>5.8333333333333334E-2</v>
       </c>
       <c r="F34">
         <f>K34/D3</f>
-        <v>0.23518518518518519</v>
+        <v>0.11018518518518519</v>
       </c>
       <c r="H34">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="I34">
-        <v>762</v>
+        <v>284</v>
       </c>
       <c r="J34">
-        <v>1362</v>
+        <v>112</v>
       </c>
       <c r="K34">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36">
-        <f>H36/C3</f>
-        <v>0.76718750000000002</v>
-      </c>
-      <c r="D36">
-        <f>I36/D3</f>
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="E36">
-        <f>J36/C3</f>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="F36">
-        <f>K36/D3</f>
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="H36">
-        <v>1473</v>
-      </c>
-      <c r="I36">
-        <v>500</v>
-      </c>
-      <c r="J36">
-        <v>90</v>
-      </c>
-      <c r="K36">
-        <v>99</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <f>H35/C3</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <f>I35/D3</f>
+        <v>0.7768518518518519</v>
+      </c>
+      <c r="E35">
+        <f>J35/C3</f>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="F35">
+        <f>K35/D3</f>
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>839</v>
+      </c>
+      <c r="J35">
+        <v>105</v>
+      </c>
+      <c r="K35">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <f>H37/C3</f>
-        <v>0.18124999999999999</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="D37">
-        <f>I37/D11</f>
-        <v>850.75471698113211</v>
+        <f>I37/D3</f>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E37">
         <f>J37/C3</f>
-        <v>4.4791666666666667E-2</v>
+        <v>0.70937499999999998</v>
       </c>
       <c r="F37">
         <f>K37/D3</f>
-        <v>8.7037037037037038E-2</v>
+        <v>0.23518518518518519</v>
       </c>
       <c r="H37">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="I37">
-        <v>501</v>
+        <v>762</v>
       </c>
       <c r="J37">
-        <v>86</v>
+        <v>1362</v>
       </c>
       <c r="K37">
-        <v>94</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C39">
         <f>H39/C3</f>
-        <v>0.51249999999999996</v>
+        <v>0.76718750000000002</v>
       </c>
       <c r="D39">
         <f>I39/D3</f>
-        <v>0.31944444444444442</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="E39">
         <f>J39/C3</f>
-        <v>0.26874999999999999</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="F39">
         <f>K39/D3</f>
-        <v>0.22870370370370371</v>
+        <v>9.166666666666666E-2</v>
       </c>
       <c r="H39">
-        <v>984</v>
+        <v>1473</v>
       </c>
       <c r="I39">
-        <v>345</v>
+        <v>500</v>
       </c>
       <c r="J39">
-        <v>516</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>247</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C40">
         <f>H40/C3</f>
-        <v>0.22135416666666666</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="D40">
-        <f>I40/D3</f>
-        <v>0.3212962962962963</v>
+        <f>I40/D11</f>
+        <v>871.304347826087</v>
       </c>
       <c r="E40">
         <f>J40/C3</f>
-        <v>0.26614583333333336</v>
+        <v>4.4791666666666667E-2</v>
       </c>
       <c r="F40">
         <f>K40/D3</f>
-        <v>0.22962962962962963</v>
+        <v>8.7037037037037038E-2</v>
       </c>
       <c r="H40">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="I40">
-        <v>347</v>
+        <v>501</v>
       </c>
       <c r="J40">
-        <v>511</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41">
-        <f>H41/C3</f>
-        <v>0.32916666666666666</v>
-      </c>
-      <c r="D41">
-        <f>I41/D3</f>
-        <v>0.44722222222222224</v>
-      </c>
-      <c r="E41">
-        <f>J41/C3</f>
-        <v>0.34895833333333331</v>
-      </c>
-      <c r="F41">
-        <f>K41/D3</f>
-        <v>0.23425925925925925</v>
-      </c>
-      <c r="H41">
-        <v>632</v>
-      </c>
-      <c r="I41">
-        <v>483</v>
-      </c>
-      <c r="J41">
-        <v>670</v>
-      </c>
-      <c r="K41">
-        <v>253</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <f>H42/C3</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="D42">
+        <f>I42/D3</f>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="E42">
+        <f>J42/C3</f>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="F42">
+        <f>K42/D3</f>
+        <v>0.22870370370370371</v>
+      </c>
+      <c r="H42">
+        <v>984</v>
+      </c>
+      <c r="I42">
+        <v>345</v>
+      </c>
+      <c r="J42">
+        <v>516</v>
+      </c>
+      <c r="K42">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <f>H43/C3</f>
-        <v>0.61562499999999998</v>
+        <v>0.22135416666666666</v>
       </c>
       <c r="D43">
         <f>I43/D3</f>
-        <v>0.41944444444444445</v>
+        <v>0.3212962962962963</v>
       </c>
       <c r="E43">
         <f>J43/C3</f>
-        <v>0.14687500000000001</v>
+        <v>0.26614583333333336</v>
       </c>
       <c r="F43">
         <f>K43/D3</f>
-        <v>0.13240740740740742</v>
+        <v>0.22962962962962963</v>
       </c>
       <c r="H43">
-        <v>1182</v>
+        <v>425</v>
       </c>
       <c r="I43">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="J43">
-        <v>282</v>
+        <v>511</v>
       </c>
       <c r="K43">
-        <v>143</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <f>H44/C3</f>
-        <v>0.24635416666666668</v>
+        <v>0.32916666666666666</v>
       </c>
       <c r="D44">
         <f>I44/D3</f>
-        <v>0.41944444444444445</v>
+        <v>0.44722222222222224</v>
       </c>
       <c r="E44">
         <f>J44/C3</f>
-        <v>0.14583333333333334</v>
+        <v>0.34895833333333331</v>
       </c>
       <c r="F44">
         <f>K44/D3</f>
+        <v>0.23425925925925925</v>
+      </c>
+      <c r="H44">
+        <v>632</v>
+      </c>
+      <c r="I44">
+        <v>483</v>
+      </c>
+      <c r="J44">
+        <v>670</v>
+      </c>
+      <c r="K44">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <f>H46/C3</f>
+        <v>0.61562499999999998</v>
+      </c>
+      <c r="D46">
+        <f>I46/D3</f>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E46">
+        <f>J46/C3</f>
+        <v>0.14687500000000001</v>
+      </c>
+      <c r="F46">
+        <f>K46/D3</f>
         <v>0.13240740740740742</v>
       </c>
-      <c r="H44">
-        <v>473</v>
-      </c>
-      <c r="I44">
+      <c r="H46">
+        <v>1182</v>
+      </c>
+      <c r="I46">
         <v>453</v>
       </c>
-      <c r="J44">
-        <v>280</v>
-      </c>
-      <c r="K44">
+      <c r="J46">
+        <v>282</v>
+      </c>
+      <c r="K46">
         <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45">
-        <f>H45/C3</f>
-        <v>0.421875</v>
-      </c>
-      <c r="D45">
-        <f>I45/D3</f>
-        <v>0.56018518518518523</v>
-      </c>
-      <c r="E45">
-        <f>J45/C3</f>
-        <v>0.15364583333333334</v>
-      </c>
-      <c r="F45">
-        <f>K45/D3</f>
-        <v>0.12592592592592591</v>
-      </c>
-      <c r="H45">
-        <v>810</v>
-      </c>
-      <c r="I45">
-        <v>605</v>
-      </c>
-      <c r="J45">
-        <v>295</v>
-      </c>
-      <c r="K45">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <f>H47/C3</f>
-        <v>0.84947916666666667</v>
+        <v>0.24635416666666668</v>
       </c>
       <c r="D47">
         <f>I47/D3</f>
-        <v>0.13148148148148148</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="E47">
         <f>J47/C3</f>
-        <v>6.822916666666666E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="F47">
         <f>K47/D3</f>
-        <v>0.12222222222222222</v>
+        <v>0.13240740740740742</v>
       </c>
       <c r="H47">
-        <v>1631</v>
+        <v>473</v>
       </c>
       <c r="I47">
-        <v>142</v>
+        <v>453</v>
       </c>
       <c r="J47">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="K47">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C48">
         <f>H48/C3</f>
-        <v>0.51197916666666665</v>
+        <v>0.421875</v>
       </c>
       <c r="D48">
         <f>I48/D3</f>
-        <v>0.30555555555555558</v>
+        <v>0.56018518518518523</v>
       </c>
       <c r="E48">
         <f>J48/C3</f>
-        <v>0.23229166666666667</v>
+        <v>0.15364583333333334</v>
       </c>
       <c r="F48">
         <f>K48/D3</f>
-        <v>9.2592592592592587E-2</v>
+        <v>0.12592592592592591</v>
       </c>
       <c r="H48">
-        <v>983</v>
+        <v>810</v>
       </c>
       <c r="I48">
-        <v>330</v>
+        <v>605</v>
       </c>
       <c r="J48">
-        <v>446</v>
+        <v>295</v>
       </c>
       <c r="K48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49">
-        <f>H49/C3</f>
-        <v>5.0520833333333334E-2</v>
-      </c>
-      <c r="D49">
-        <f>I49/D3</f>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="E49">
-        <f>J49/C3</f>
-        <v>9.6354166666666671E-2</v>
-      </c>
-      <c r="F49">
-        <f>K49/D3</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="H49">
-        <v>97</v>
-      </c>
-      <c r="I49">
-        <v>198</v>
-      </c>
-      <c r="J49">
-        <v>185</v>
-      </c>
-      <c r="K49">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50">
         <f>H50/C3</f>
-        <v>0.25312499999999999</v>
+        <v>0.84947916666666667</v>
       </c>
       <c r="D50">
         <f>I50/D3</f>
-        <v>0.29814814814814816</v>
+        <v>0.13148148148148148</v>
       </c>
       <c r="E50">
         <f>J50/C3</f>
-        <v>0.234375</v>
+        <v>6.822916666666666E-2</v>
       </c>
       <c r="F50">
         <f>K50/D3</f>
-        <v>9.166666666666666E-2</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="H50">
-        <v>486</v>
+        <v>1631</v>
       </c>
       <c r="I50">
-        <v>322</v>
+        <v>142</v>
       </c>
       <c r="J50">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="K50">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51">
+        <f>H51/C3</f>
+        <v>0.51197916666666665</v>
+      </c>
+      <c r="D51">
+        <f>I51/D3</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E51">
+        <f>J51/C3</f>
+        <v>0.23229166666666667</v>
+      </c>
+      <c r="F51">
+        <f>K51/D3</f>
+        <v>9.2592592592592587E-2</v>
+      </c>
+      <c r="H51">
+        <v>983</v>
+      </c>
+      <c r="I51">
+        <v>330</v>
+      </c>
+      <c r="J51">
+        <v>446</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C52">
         <f>H52/C3</f>
-        <v>0.35</v>
+        <v>5.0520833333333334E-2</v>
       </c>
       <c r="D52">
         <f>I52/D3</f>
-        <v>0.41944444444444445</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="E52">
         <f>J52/C3</f>
-        <v>0.29375000000000001</v>
+        <v>9.6354166666666671E-2</v>
       </c>
       <c r="F52">
         <f>K52/D3</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H52">
+        <v>97</v>
+      </c>
+      <c r="I52">
+        <v>198</v>
+      </c>
+      <c r="J52">
+        <v>185</v>
+      </c>
+      <c r="K52">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53">
+        <f>H53/C3</f>
+        <v>0.25312499999999999</v>
+      </c>
+      <c r="D53">
+        <f>I53/D3</f>
+        <v>0.29814814814814816</v>
+      </c>
+      <c r="E53">
+        <f>J53/C3</f>
+        <v>0.234375</v>
+      </c>
+      <c r="F53">
+        <f>K53/D3</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="H53">
+        <v>486</v>
+      </c>
+      <c r="I53">
+        <v>322</v>
+      </c>
+      <c r="J53">
+        <v>450</v>
+      </c>
+      <c r="K53">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55">
+        <f>H55/C3</f>
+        <v>0.35</v>
+      </c>
+      <c r="D55">
+        <f>I55/D3</f>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E55">
+        <f>J55/C3</f>
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F55">
+        <f>K55/D3</f>
         <v>0.10555555555555556</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>672</v>
       </c>
-      <c r="I52">
+      <c r="I55">
         <v>453</v>
       </c>
-      <c r="J52">
+      <c r="J55">
         <v>564</v>
       </c>
-      <c r="K52">
+      <c r="K55">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>138</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>97</v>
       </c>
-      <c r="C54">
-        <f>H54/C3</f>
+      <c r="C57">
+        <f>H57/C3</f>
         <v>0.70416666666666672</v>
       </c>
-      <c r="D54">
-        <f>I54/D3</f>
+      <c r="D57">
+        <f>I57/D3</f>
         <v>0.25648148148148148</v>
       </c>
-      <c r="E54">
-        <f>J54/C3</f>
+      <c r="E57">
+        <f>J57/C3</f>
         <v>0.20156250000000001</v>
       </c>
-      <c r="F54">
-        <f>K54/D3</f>
+      <c r="F57">
+        <f>K57/D3</f>
         <v>8.981481481481482E-2</v>
       </c>
-      <c r="H54">
+      <c r="H57">
         <v>1352</v>
       </c>
-      <c r="I54">
+      <c r="I57">
         <v>277</v>
       </c>
-      <c r="J54">
+      <c r="J57">
         <v>387</v>
       </c>
-      <c r="K54">
+      <c r="K57">
         <v>97</v>
       </c>
     </row>

--- a/screenshot_area.xlsx
+++ b/screenshot_area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leizh\github\ddz_card_recorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE300A70-5D90-4F7C-BD29-0D361F65B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD9C13-5C7E-4D81-8E69-FCCFA047EFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2105,31 +2105,31 @@
       </c>
       <c r="C50">
         <f>H50/C3</f>
-        <v>0.84947916666666667</v>
+        <v>0.86145833333333333</v>
       </c>
       <c r="D50">
         <f>I50/D3</f>
-        <v>0.13148148148148148</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="E50">
         <f>J50/C3</f>
-        <v>6.822916666666666E-2</v>
+        <v>8.8541666666666671E-2</v>
       </c>
       <c r="F50">
         <f>K50/D3</f>
-        <v>0.12222222222222222</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="H50">
-        <v>1631</v>
+        <v>1654</v>
       </c>
       <c r="I50">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J50">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="K50">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2141,31 +2141,31 @@
       </c>
       <c r="C51">
         <f>H51/C3</f>
-        <v>0.51197916666666665</v>
+        <v>0.55572916666666672</v>
       </c>
       <c r="D51">
         <f>I51/D3</f>
-        <v>0.30555555555555558</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="E51">
         <f>J51/C3</f>
-        <v>0.23229166666666667</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="F51">
         <f>K51/D3</f>
-        <v>9.2592592592592587E-2</v>
+        <v>0.3</v>
       </c>
       <c r="H51">
-        <v>983</v>
+        <v>1067</v>
       </c>
       <c r="I51">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="J51">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="K51">
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2177,31 +2177,31 @@
       </c>
       <c r="C52">
         <f>H52/C3</f>
-        <v>5.0520833333333334E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="D52">
         <f>I52/D3</f>
-        <v>0.18333333333333332</v>
+        <v>0.18148148148148149</v>
       </c>
       <c r="E52">
         <f>J52/C3</f>
-        <v>9.6354166666666671E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F52">
         <f>K52/D3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="H52">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I52">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J52">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K52">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2213,31 +2213,31 @@
       </c>
       <c r="C53">
         <f>H53/C3</f>
-        <v>0.25312499999999999</v>
+        <v>0.25572916666666667</v>
       </c>
       <c r="D53">
         <f>I53/D3</f>
-        <v>0.29814814814814816</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="E53">
         <f>J53/C3</f>
-        <v>0.234375</v>
+        <v>0.18229166666666666</v>
       </c>
       <c r="F53">
         <f>K53/D3</f>
-        <v>9.166666666666666E-2</v>
+        <v>0.31018518518518517</v>
       </c>
       <c r="H53">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="I53">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="J53">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K53">
-        <v>99</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2249,31 +2249,31 @@
       </c>
       <c r="C55">
         <f>H55/C3</f>
-        <v>0.35</v>
+        <v>0.37291666666666667</v>
       </c>
       <c r="D55">
         <f>I55/D3</f>
-        <v>0.41944444444444445</v>
+        <v>0.45185185185185184</v>
       </c>
       <c r="E55">
         <f>J55/C3</f>
-        <v>0.29375000000000001</v>
+        <v>0.24791666666666667</v>
       </c>
       <c r="F55">
         <f>K55/D3</f>
-        <v>0.10555555555555556</v>
+        <v>0.24351851851851852</v>
       </c>
       <c r="H55">
-        <v>672</v>
+        <v>716</v>
       </c>
       <c r="I55">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="J55">
-        <v>564</v>
+        <v>476</v>
       </c>
       <c r="K55">
-        <v>114</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
